--- a/CountryData/Ghana/Ghana_Workbook.xlsx
+++ b/CountryData/Ghana/Ghana_Workbook.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Ghana/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FB5FF49C-9801-4297-814E-C58CCFE61809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:40009_{FB5FF49C-9801-4297-814E-C58CCFE61809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09A90401-A125-4BBC-B72F-A8CBC43D8552}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ghana_Popup" sheetId="1" r:id="rId1"/>
@@ -150,9 +150,6 @@
     </r>
   </si>
   <si>
-    <t>Austin Dziwornu Ablo (2016) – The Micromechanisms of Power in Local Content Requirements and their Constraints on Ghanaian SMEs in the Oil and Gas Sector  (Paywall)</t>
-  </si>
-  <si>
     <r>
       <t>Relevant Initiatives: </t>
     </r>
@@ -202,7 +199,246 @@
       <rPr>
         <u/>
         <sz val="11"/>
-        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>April 2021 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ghana Promotes Local Content after Discovery  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>February 2021 –</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> New Mining Local Content Law Lacks Key Detail- NRGI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>November 2019 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Minerals Commission Tackling Drop in Mining Sector Local Content</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>November 2019 –</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> Govt Committed To Gender Mainstreaming Into The Oil And Gas Sector</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>February 2019 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Government Awards $799m Upstream Petroleum Contracts to Ghanaian Companies </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>November 2018 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ghana Certifies First Gold Bars</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>November 2018 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Banks Urged to Partner Industry - To Provide Funding to Boost Local Content</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>February 2018 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Petroleum Commission to up Local Content Requirement in Oil &amp; Gas Sector </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>December 2017 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Programme to Position Ghanaian Firms to Gain Greater Share of Mineral Sector Procurement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Suleman and Jebuntie Zaato (2021) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Local content Implementation and Development in Ghana’s Upstream Oil and Gas Sector for Sustainable Development: Contemporary Issues on Policy Management  </t>
+    </r>
+  </si>
+  <si>
+    <t>—2017 Workshop Report, Report on launch of Ghana’s National Suppliers’ Development Programme</t>
+  </si>
+  <si>
+    <t>—2009 Case Study, Newmont – Supporting Local Economic Growth in Ghana</t>
+  </si>
+  <si>
+    <t>—2009 Project Report, Creating the Foundations for a Linkage Program in a Rural Setting: Lessons Learned from the Early Stages of the Ahafo Linkages Program in Ghana</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -212,30 +448,7 @@
       <rPr>
         <u/>
         <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2017 Workshop Report, Report on launch of Ghana’s National Suppliers’ Development Programme</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>—</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -248,50 +461,314 @@
       <rPr>
         <u/>
         <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>—</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2009 Case Study, Newmont – Supporting Local Economic Growth in Ghana</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>—</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2009 Project Report, Creating the Foundations for a Linkage Program in a Rural Setting: Lessons Learned from the Early Stages of the Ahafo Linkages Program in Ghana</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>August 2020 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Local Procurements under Mining Local Content Increases Exponentially </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>November 2019 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Petroleum Comission to Review Local Content Regulations</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>August 2019 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ghana will not Meet Target for Local Content Quota in Oil and Gas Sector by Deadline </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>November 2017 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chamber of Mines Unveils Local Content Portal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Columbia Centre on Sustainable Investment (2019) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Local Content: Ghana – Mining</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Columbia Centre on Sustainable Investment (2019) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Local Content: Ghana – Petroleum </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>United Nations. Economic Commission for Africa. Special Initiatives Division. African Minerals Development Center (2018) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scaling Up Value Creation and Local Development in the Upstream Mining Sector in Ghana </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ackah and Mohammed (2018) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Local Content Law and Practice: The Case of the Oil and Gas Industry in Ghana </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>International Finance Corporation (2018) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Estimating the Effects of the Development of the Oil and Gas Sector on Growth and Jobs in Ghana (2015-30): A Modelling and Value Chain Analysis </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tim Grice (2018) –</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> Ghana: Direct Employment: Comparing Local Content Frameworks in Mining and Oil and Gas Industries</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nickerson and Geipel (2018) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ghana: Upstream Linkages: The Importance of Defining Local</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Amoako-Tuffour et al. (2015) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Local Content and Value Addition in Ghana’s Mineral, Oil, and Gas Sectors: Is Ghana Getting It Right? </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Austin Dziwornu Ablo (2016) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The Micromechanisms of Power in Local Content Requirements and their Constraints on Ghanaian SMEs in the Oil and Gas Sector </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Paywall)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -301,545 +778,31 @@
     </r>
     <r>
       <rPr>
+        <u/>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Enterprise Development? Local Content, Corporate Social Responsibility and Disjunctive Linkages in Ghana’s Oil and Gas Industry</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">Enterprise Development? Local Content, Corporate Social Responsibility and Disjunctive Linkages in Ghana’s Oil and Gas Industry </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>(Paywall)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>April 2021 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ghana Promotes Local Content after Discovery  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>February 2021 –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> New Mining Local Content Law Lacks Key Detail- NRGI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>August 2020 –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> Local Procurements under Mining Local Content Increases Exponentially </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>November 2019 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Minerals Commission Tackling Drop in Mining Sector Local Content</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>November 2019 –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> Petroleum Comission to Review Local Content Regulations</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>November 2019 –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> Govt Committed To Gender Mainstreaming Into The Oil And Gas Sector</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>August 2019 –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> Ghana will not Meet Target for Local Content Quota in Oil and Gas Sector by Deadline </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>February 2019 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Government Awards $799m Upstream Petroleum Contracts to Ghanaian Companies </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>November 2018 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ghana Certifies First Gold Bars</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>November 2018 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Banks Urged to Partner Industry - To Provide Funding to Boost Local Content</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>February 2018 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Petroleum Commission to up Local Content Requirement in Oil &amp; Gas Sector </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>December 2017 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Programme to Position Ghanaian Firms to Gain Greater Share of Mineral Sector Procurement</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>November 2017 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chamber of Mines Unveils Local Content Portal </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Suleman and Jebuntie Zaato (2021) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Local content Implementation and Development in Ghana’s Upstream Oil and Gas Sector for Sustainable Development: Contemporary Issues on Policy Management  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Columbia Centre on Sustainable Investment (2019) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Local Content: Ghana – Mining</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Columbia Centre on Sustainable Investment (2019) –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Local Content: Ghana – Petroleum </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>United Nations. Economic Commission for Africa. Special Initiatives Division. African Minerals Development Center (2018) –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> Scaling Up Value Creation and Local Development in the Upstream Mining Sector in Ghana </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ackah and Mohammed (2018) –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> Local Content Law and Practice: The Case of the Oil and Gas Industry in Ghana </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>International Finance Corporation (2018) –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> Estimating the Effects of the Development of the Oil and Gas Sector on Growth and Jobs in Ghana (2015-30): A Modelling and Value Chain Analysis </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tim Grice (2018) –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> Ghana: Direct Employment: Comparing Local Content Frameworks in Mining and Oil and Gas Industries</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Nickerson and Geipel (2018) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ghana: Upstream Linkages: The Importance of Defining Local</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Amoako-Tuffour et al. (2015) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Local Content and Value Addition in Ghana’s Mineral, Oil, and Gas Sectors: Is Ghana Getting It Right? </t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1083,13 +1046,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
@@ -1127,6 +1083,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1523,7 +1486,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1575,29 +1538,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1953,11 +1923,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="A1:L58"/>
+      <selection sqref="A1:M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1967,6 +1937,9 @@
     <col min="3" max="13" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="21"/>
+    </row>
     <row r="2" spans="1:16" ht="18.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
@@ -2098,7 +2071,7 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -2302,8 +2275,8 @@
       <c r="P20" s="27"/>
     </row>
     <row r="21" spans="1:16" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -2341,7 +2314,7 @@
     </row>
     <row r="23" spans="1:16" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
@@ -2361,7 +2334,7 @@
     </row>
     <row r="24" spans="1:16" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -2381,7 +2354,7 @@
     </row>
     <row r="25" spans="1:16" s="11" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
@@ -2401,7 +2374,7 @@
     </row>
     <row r="26" spans="1:16" s="11" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
@@ -2421,7 +2394,7 @@
     </row>
     <row r="27" spans="1:16" s="11" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -2441,7 +2414,7 @@
     </row>
     <row r="28" spans="1:16" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
@@ -2461,7 +2434,7 @@
     </row>
     <row r="29" spans="1:16" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -2481,7 +2454,7 @@
     </row>
     <row r="30" spans="1:16" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
@@ -2501,7 +2474,7 @@
     </row>
     <row r="31" spans="1:16" s="11" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -2521,7 +2494,7 @@
     </row>
     <row r="32" spans="1:16" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
@@ -2541,7 +2514,7 @@
     </row>
     <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -2561,7 +2534,7 @@
     </row>
     <row r="34" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
@@ -2581,7 +2554,7 @@
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
@@ -2600,10 +2573,10 @@
       <c r="P35" s="28"/>
     </row>
     <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
@@ -2624,63 +2597,183 @@
     </row>
     <row r="38" spans="1:16" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+    </row>
+    <row r="40" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+    </row>
+    <row r="41" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="28" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+    </row>
+    <row r="42" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="28" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+    </row>
+    <row r="43" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="28" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+    </row>
+    <row r="44" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="28" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+    </row>
+    <row r="45" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="28" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+    </row>
+    <row r="46" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="28" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+    </row>
+    <row r="47" spans="1:16" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+    </row>
+    <row r="48" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="28" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
-        <v>54</v>
-      </c>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
     </row>
     <row r="49" spans="1:15" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
@@ -2697,7 +2790,7 @@
     </row>
     <row r="51" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -2715,13 +2808,13 @@
       <c r="O51" s="16"/>
     </row>
     <row r="52" spans="1:15" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
+      <c r="A52" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
@@ -2734,13 +2827,13 @@
       <c r="O52" s="14"/>
     </row>
     <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
+      <c r="A53" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
@@ -2753,13 +2846,13 @@
       <c r="O53" s="14"/>
     </row>
     <row r="54" spans="1:15" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
+      <c r="A54" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
@@ -2773,7 +2866,7 @@
     </row>
     <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -2791,17 +2884,17 @@
       <c r="O55" s="16"/>
     </row>
     <row r="56" spans="1:15" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
+      <c r="A56" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
       <c r="J56" s="14"/>
       <c r="K56" s="14"/>
       <c r="L56" s="14"/>
@@ -2810,17 +2903,17 @@
       <c r="O56" s="14"/>
     </row>
     <row r="57" spans="1:15" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
+      <c r="A57" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
       <c r="J57" s="14"/>
       <c r="K57" s="14"/>
       <c r="L57" s="14"/>
@@ -2829,15 +2922,15 @@
       <c r="O57" s="14"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
       <c r="J58" s="29"/>
       <c r="K58" s="29"/>
       <c r="L58" s="29"/>
@@ -2847,52 +2940,55 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A57" r:id="rId1" display="https://www.commdev.org/pdf/publications/P_Creating_Foundations_Linkage_Program_Rural_Setting.pdf"/>
-    <hyperlink ref="A56" r:id="rId2" display="http://docs.wbcsd.org/2011/08/Newmont_Case_Study.pdf"/>
-    <hyperlink ref="A54" r:id="rId3" display="https://www.appghana.com/"/>
-    <hyperlink ref="A53" r:id="rId4" display="https://investinafrica.com/"/>
-    <hyperlink ref="A52" r:id="rId5" location=":~:text=The%20NSDP%20aims%20to%20boost,generate%20growth%20and%20create%20jobs." display="https://acetforafrica.org/events/workshop-reports/report-on-launch-of-ghanas-national-suppliers-development-programme/ - :~:text=The%20NSDP%20aims%20to%20boost,generate%20growth%20and%20create%20jobs."/>
-    <hyperlink ref="A48" r:id="rId6" display="https://commdev.org/pdf/publications/ACET-2015-Local-Content-and-Value-Addition-in-Ghanas-Mineral-Oil-and-Gas-Sectors-Is-Ghana-Getting-it-Righ.pdf"/>
-    <hyperlink ref="A46" r:id="rId7" display="https://www.iisd.org/sites/default/files/publications/case-study-ghana-upstream-linkages.pdf"/>
-    <hyperlink ref="A45" r:id="rId8" display="https://www.iisd.org/sites/default/files/publications/case-study-ghana-direct-employment.pdf"/>
-    <hyperlink ref="A44" r:id="rId9" display="https://commdev.org/publications/estimating-the-effects-of-the-development-of-the-oil-and-gas-sector-on-growth-and-jobs-in-ghana-2015-30-a-modelling-and-value-chain-analysis/"/>
-    <hyperlink ref="A43" r:id="rId10" display="https://www.wider.unu.edu/sites/default/files/Publications/Working-paper/PDF/wp2018-152.pdf"/>
-    <hyperlink ref="A42" r:id="rId11" display="https://repository.uneca.org/handle/10855/24483"/>
-    <hyperlink ref="A41" r:id="rId12" display="https://ccsi.columbia.edu/sites/default/files/content/docs/Local-Content-Ghana-Petroleum-CCSI-December-2019.pdf"/>
-    <hyperlink ref="A40" r:id="rId13" display="https://ccsi.columbia.edu/sites/default/files/content/docs/Local-Content_Ghana-mining_Nov2019.pdf"/>
-    <hyperlink ref="A38" r:id="rId14" display="https://link.springer.com/content/pdf/10.1007/s43621-021-00028-9.pdf"/>
-    <hyperlink ref="A35" r:id="rId15" display="https://www.modernghana.com/news/818047/chamber-of-mines-unveils-local-content-portal.html?utm_content=buffer39aa8&amp;utm_medium=social&amp;utm_source=twitter.com&amp;utm_campaign=buffer"/>
-    <hyperlink ref="A34" r:id="rId16" display="https://www.miningweekly.com/article/programme-to-position-ghanaian-firms-to-gain-greater-share-of-mineral-sector-procurement-2017-12-15/rep_id:3650?utm_content=buffer293df&amp;utm_medium=social&amp;utm_source=twitter.com&amp;utm_campaign=buffer"/>
-    <hyperlink ref="A33" r:id="rId17" display="https://starrfm.com.gh/2018/02/petroleum-commission-local-content-requirement-oil-gas-sector/"/>
-    <hyperlink ref="A32" r:id="rId18" display="https://www.graphic.com.gh/business/business-news/banks-urged-to-partner-industry-to-provide-funding-to-boost-local-content.html"/>
-    <hyperlink ref="A31" r:id="rId19" display="https://www.graphic.com.gh/news/general-news/ghana-news-ghana-certifies-first-gold-bars.html"/>
-    <hyperlink ref="A30" r:id="rId20" display="https://www.ghanabusinessnews.com/2019/02/06/government-awards-799m-upstream-petroleum-contracts-to-ghanaian-companies/"/>
-    <hyperlink ref="A29" r:id="rId21" display="https://www.ghanabusinessnews.com/2019/08/19/ghana-wont-meet-target-for-local-content-quota-in-oil-and-gas-sector-by-deadline/"/>
-    <hyperlink ref="A28" r:id="rId22" display="https://www.peacefmonline.com/pages/local/news/201911/396218.php"/>
-    <hyperlink ref="A27" r:id="rId23" display="https://www.ghanaweb.com/GhanaHomePage/business/Auditor-General-must-compel-over-40-000-public-officers-to-declare-assets-OccupyGhana-802734"/>
-    <hyperlink ref="A26" r:id="rId24" display="https://africaneyereport.com/minerals-commission-tackling-drop-in-mining-sector-local-content/"/>
-    <hyperlink ref="A25" r:id="rId25" display="https://www.ghanaweb.com/GhanaHomePage/business/Local-procurements-under-mining-local-content-increases-exponentially-1041040"/>
-    <hyperlink ref="A24" r:id="rId26" display="https://www.ghanaweb.com/GhanaHomePage/business/New-mining-local-content-law-lacks-key-detail-NRGI-1190101"/>
-    <hyperlink ref="A23" r:id="rId27" display="https://www.miningweekly.com/article/ghana-promotes-local-content-following-bauxite-discovery-2021-04-02/rep_id:3650"/>
-    <hyperlink ref="A20" r:id="rId28" display="https://www.extractiveshub.org/servefile/getFile/id/798"/>
-    <hyperlink ref="A19" r:id="rId29" display="https://www.petrocom.gov.gh/wp-content/uploads/2018/12/petroleum-commission-act-2011-act-821-1.pdf"/>
-    <hyperlink ref="A18" r:id="rId30" display="https://www.petrocom.gov.gh/wp-content/uploads/2018/12/13-Local-Content-and-Local-Participation-Regulations-L_I-2204.pdf"/>
-    <hyperlink ref="A17" r:id="rId31" display="http://www.petrocom.gov.gh/L&amp;C_folder/Pet_register/laws/PETROLEUM (EXPLORATION AND PRODUCTION) ACT, 2016 (ACT 919).pdf"/>
-    <hyperlink ref="A16" r:id="rId32" display="http://ghanachamberofmines.org/wp-content/uploads/2020/12/LI-2431-Local-Content-Participation-compressed-1.pdf"/>
-    <hyperlink ref="A15" r:id="rId33" display="https://www.google.com/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=&amp;ved=2ahUKEwiR-r657t3wAhWaZs0KHUgDAmMQFjAAegQIAhAD&amp;url=https%3A%2F%2Fa-mla.org%2Fmasteract%2Fdownload%2F1288&amp;usg=AOvVaw0b0Q_0cDm9hE2mG8nEwqUo"/>
-    <hyperlink ref="A14" r:id="rId34" display="http://extwprlegs1.fao.org/docs/pdf/gha168926.pdf"/>
-    <hyperlink ref="A13" r:id="rId35" display="https://resourcegovernance.org/sites/default/files/Minerals and Mining Act 703 Ghana.pdf"/>
-    <hyperlink ref="A10" r:id="rId36" display="https://atlas.cid.harvard.edu/countries/83/export-basket"/>
-    <hyperlink ref="B7" r:id="rId37" display="https://eiti.org/ghana"/>
-    <hyperlink ref="B6" r:id="rId38" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking"/>
-    <hyperlink ref="B5" r:id="rId39" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=GH"/>
-    <hyperlink ref="B4" r:id="rId40" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=GH"/>
-    <hyperlink ref="B3" r:id="rId41" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=GH"/>
+    <hyperlink ref="A57" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A56" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A54" r:id="rId3" display="https://www.appghana.com/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A53" r:id="rId4" display="https://investinafrica.com/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A52" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A48" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A46" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A45" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A44" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A43" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A42" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A41" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A40" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A38" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A35" r:id="rId15" display="November 2017 – Chamber of Mines Unveils Local Content Portal " xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A34" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A33" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A32" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A31" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A30" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A29" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A28" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A27" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A26" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A25" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A24" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A23" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A20" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A19" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A18" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A16" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A15" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A14" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A13" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A10" r:id="rId36" display="https://atlas.cid.harvard.edu/countries/83/export-basket" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B7" r:id="rId37" display="https://eiti.org/ghana" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B6" r:id="rId38" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B5" r:id="rId39" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=GH" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B4" r:id="rId40" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=GH" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B3" r:id="rId41" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=GH" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A39" r:id="rId42" display="Austin Dziwornu Ablo (2020) – Enterprise Development? Local Content, Corporate Social Responsibility and Disjunctive Linkages in Ghana’s Oil and Gas Industry  (Paywall)" xr:uid="{3DE68F57-4A68-4327-87B5-7AF2DB95BFAE}"/>
+    <hyperlink ref="A47" r:id="rId43" xr:uid="{390C9A6C-64A8-4BA7-BDB3-46561B6564A9}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId42"/>
-  <webPublishItems count="1">
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId44"/>
+  <webPublishItems count="2">
     <webPublishItem id="17051" divId="Ghana_Workbook_17051" sourceType="range" sourceRef="A1:L58" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Ghana\Ghana_Popup.htm" autoRepublish="1"/>
+    <webPublishItem id="7414" divId="Ghana_Workbook_7414" sourceType="range" sourceRef="A1:M58" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Ghana\Ghana_Workbook.htm" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
 </file>